--- a/task_cate_list.xlsx
+++ b/task_cate_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umlij\Dropbox (GaTech)\GT Research\ShangHaiAuto\git_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243B5D38-6DE4-4060-8DAA-A4F215B4DFAC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707FAD82-4AAF-41C7-AEDD-4F04DD833DB4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{864A67C2-F276-474E-9DB5-866684B3172C}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>C metric</t>
   </si>
   <si>
-    <t>运输</t>
-  </si>
-  <si>
     <t>TRANS1</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>PACK1</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
 </sst>
 </file>
@@ -288,10 +288,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,399 +610,399 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A23" sqref="A23:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A47:A60"/>
     <mergeCell ref="A1:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
